--- a/workload repartition.xlsx
+++ b/workload repartition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpha/switchdrive/ACT-TP/act-github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpha/switchdrive/ACT-TP/act-github/act-tp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2608BD4B-E8E0-B749-B94E-E724EDE06B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C8C909-388E-8F4E-A3B8-50CF0253ACFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="-5900" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44060" yWindow="-2400" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
   <si>
     <t>Prep 1</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Week 12: Graph Algorithms</t>
+  </si>
+  <si>
+    <t>Louay</t>
+  </si>
+  <si>
+    <t>Abiola</t>
   </si>
 </sst>
 </file>
@@ -255,7 +261,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -338,6 +344,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -630,7 +639,7 @@
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="Q7" sqref="Q7"/>
-      <selection pane="topRight" activeCell="K34" sqref="K34"/>
+      <selection pane="topRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -893,10 +902,51 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
+      <c r="C8" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>

--- a/workload repartition.xlsx
+++ b/workload repartition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpha/switchdrive/ACT-TP/act-github/act-tp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C8C909-388E-8F4E-A3B8-50CF0253ACFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD95DF5F-EE96-364B-AC59-2CCF6653CC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44060" yWindow="-2400" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="2260" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>Prep 1</t>
   </si>
@@ -639,7 +639,7 @@
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="Q7" sqref="Q7"/>
-      <selection pane="topRight" activeCell="H35" sqref="H35"/>
+      <selection pane="topRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -912,7 +912,9 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="24"/>
       <c r="K7" s="26"/>
@@ -936,7 +938,9 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="24"/>
       <c r="K8" s="26"/>

--- a/workload repartition.xlsx
+++ b/workload repartition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpha/switchdrive/ACT-TP/act-github/act-tp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD95DF5F-EE96-364B-AC59-2CCF6653CC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEAE778-5346-7D47-98C1-005F3A9537EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2260" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -639,7 +639,7 @@
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="Q7" sqref="Q7"/>
-      <selection pane="topRight" activeCell="J7" sqref="J7"/>
+      <selection pane="topRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>

--- a/workload repartition.xlsx
+++ b/workload repartition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpha/switchdrive/ACT-TP/act-github/act-tp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEAE778-5346-7D47-98C1-005F3A9537EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F38F64-8B9E-974F-B810-253D6F62810A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -639,13 +639,12 @@
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="Q7" sqref="Q7"/>
-      <selection pane="topRight" activeCell="G19" sqref="G19"/>
+      <selection pane="topRight" activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="1" max="2" width="4.83203125" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>

--- a/workload repartition.xlsx
+++ b/workload repartition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpha/switchdrive/ACT-TP/act-github/act-tp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F38F64-8B9E-974F-B810-253D6F62810A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29649E9E-8699-AD43-BF81-5603F7659C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="500" windowWidth="32120" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -639,12 +639,12 @@
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="Q7" sqref="Q7"/>
-      <selection pane="topRight" activeCell="B1" sqref="A1:B1048576"/>
+      <selection pane="topRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="4.83203125" customWidth="1"/>
+    <col min="1" max="2" width="4.83203125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
